--- a/biology/Botanique/Goupia/Goupia.xlsx
+++ b/biology/Botanique/Goupia/Goupia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goupia est un genre de plantes à fleurs de la famille des Goupiaceae.
 Le nom Goupia, vient du nom latinisé de GOUPI employé à l'époque d'Aublet par les Galibis  de Guyane, pour désigner l'arbre Goupia glabra, nom qui a donné plus tard les noms kopi ou goupi de la langue Ndyuka.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Goupia regroupe des arbres pubescents.
 Les stipules lancéolées, caduques sont bien visibles sur les jeunes tiges.
@@ -528,7 +542,7 @@
 Les carpelles sont soudés à la base, et plus ou moins libres vers l'apex, et les 5 styles sont séparés.
 La placentation comporte de nombreux ovules ascendants dans chaque loge.
 Les fruits durs, subglobuleux, sont des drupes ressemblant à des baies, et contiennent 2-3 loges.
-Les graines ne sont pas arillées[2].
+Les graines ne sont pas arillées.
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « GOUPIA. (Tabula 116.)
 CAL. Perianthium monophyllum, minimum, quinquedentatum. 
 COR. Petala quinque, diſco piſtilli inſerta, lanceolata, intùs lamellam ab apice pendentem aperientia. 
@@ -596,14 +612,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 septembre 2013)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 septembre 2013) :
 Goupia glabra
-Selon The Plant List            (12 septembre 2013)[5] :
+Selon The Plant List            (12 septembre 2013) :
 Goupia glabra Aubl.
 Goupia guatemalensis Lundell
-Selon Tropicos                                           (12 septembre 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (12 septembre 2013) (Attention liste brute contenant possiblement des synonymes) :
 Goupia glabra Aubl.
 Goupia guatemalensis Lundell
 Goupia paraensis Huber
